--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H2">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I2">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J2">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N2">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O2">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P2">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q2">
-        <v>3.977066684682667</v>
+        <v>5.140433833133779</v>
       </c>
       <c r="R2">
-        <v>35.793600162144</v>
+        <v>46.26390449820401</v>
       </c>
       <c r="S2">
-        <v>0.00023903070874463</v>
+        <v>0.0002055194637305968</v>
       </c>
       <c r="T2">
-        <v>0.0002662711052316542</v>
+        <v>0.0002352640545443479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H3">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I3">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J3">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P3">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q3">
-        <v>121.4710365466915</v>
+        <v>234.9337494650671</v>
       </c>
       <c r="R3">
-        <v>1093.239328920224</v>
+        <v>2114.403745185604</v>
       </c>
       <c r="S3">
-        <v>0.007300684212695641</v>
+        <v>0.009392876120894213</v>
       </c>
       <c r="T3">
-        <v>0.008132684141177026</v>
+        <v>0.01075229605956476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H4">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I4">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J4">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P4">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q4">
-        <v>51.87330081067466</v>
+        <v>0.04741898530377778</v>
       </c>
       <c r="R4">
-        <v>311.239804864048</v>
+        <v>0.426770867734</v>
       </c>
       <c r="S4">
-        <v>0.003117702779652614</v>
+        <v>1.895856409524148E-06</v>
       </c>
       <c r="T4">
-        <v>0.002315334765371932</v>
+        <v>2.170241482934244E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.090240666666667</v>
+      </c>
+      <c r="H5">
+        <v>15.270722</v>
+      </c>
+      <c r="I5">
+        <v>0.01518526656315472</v>
+      </c>
+      <c r="J5">
+        <v>0.01525191836740238</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>2.631877333333333</v>
-      </c>
-      <c r="H5">
-        <v>7.895632</v>
-      </c>
-      <c r="I5">
-        <v>0.01066221345642817</v>
-      </c>
-      <c r="J5">
-        <v>0.01071963230056122</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N5">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O5">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P5">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q5">
-        <v>0.07979325699199999</v>
+        <v>139.6908816022957</v>
       </c>
       <c r="R5">
-        <v>0.7181393129279999</v>
+        <v>838.145289613774</v>
       </c>
       <c r="S5">
-        <v>4.795755335282243E-06</v>
+        <v>0.005584975122120387</v>
       </c>
       <c r="T5">
-        <v>5.342288780603774E-06</v>
+        <v>0.004262188011810334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>3.060866</v>
       </c>
       <c r="I6">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J6">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N6">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O6">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P6">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q6">
-        <v>1.541772488241333</v>
+        <v>1.030349393112445</v>
       </c>
       <c r="R6">
-        <v>13.875952394172</v>
+        <v>9.273144538012</v>
       </c>
       <c r="S6">
-        <v>9.266401592074463E-05</v>
+        <v>4.119435471821285E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001032241843067144</v>
+        <v>4.71563653360293E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.060866</v>
       </c>
       <c r="I7">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J7">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P7">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q7">
         <v>47.09015893224577</v>
@@ -886,10 +886,10 @@
         <v>423.8114303902119</v>
       </c>
       <c r="S7">
-        <v>0.002830225127434619</v>
+        <v>0.0018827096165235</v>
       </c>
       <c r="T7">
-        <v>0.003152762993066034</v>
+        <v>0.002155191970010047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.060866</v>
       </c>
       <c r="I8">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J8">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P8">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q8">
-        <v>20.10950140016233</v>
+        <v>0.009504669122444444</v>
       </c>
       <c r="R8">
-        <v>120.657008400974</v>
+        <v>0.085542022102</v>
       </c>
       <c r="S8">
-        <v>0.001208626546468247</v>
+        <v>3.800057669044424E-07</v>
       </c>
       <c r="T8">
-        <v>0.0008975759587003199</v>
+        <v>4.350035556212081E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>3.060866</v>
       </c>
       <c r="I9">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J9">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N9">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O9">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P9">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q9">
-        <v>0.030933111796</v>
+        <v>27.99966301570367</v>
       </c>
       <c r="R9">
-        <v>0.278398006164</v>
+        <v>167.997978094222</v>
       </c>
       <c r="S9">
-        <v>1.859150027519522E-06</v>
+        <v>0.001119453321338974</v>
       </c>
       <c r="T9">
-        <v>2.071022318508709E-06</v>
+        <v>0.0008543136579238262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H10">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I10">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J10">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N10">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O10">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P10">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q10">
-        <v>166.77027349158</v>
+        <v>69.81996018922089</v>
       </c>
       <c r="R10">
-        <v>1500.93246142422</v>
+        <v>628.3796417029879</v>
       </c>
       <c r="S10">
-        <v>0.01002327087543137</v>
+        <v>0.002791468821811961</v>
       </c>
       <c r="T10">
-        <v>0.01116554198435107</v>
+        <v>0.003195474828673586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H11">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I11">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J11">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P11">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q11">
-        <v>5093.643026962179</v>
+        <v>3190.988458800087</v>
       </c>
       <c r="R11">
-        <v>45842.78724265961</v>
+        <v>28718.89612920078</v>
       </c>
       <c r="S11">
-        <v>0.306139473978687</v>
+        <v>0.1275787721643163</v>
       </c>
       <c r="T11">
-        <v>0.3410277136333578</v>
+        <v>0.1460430981491424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H12">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I12">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J12">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N12">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O12">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P12">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q12">
-        <v>2175.202290780165</v>
+        <v>0.6440685307108889</v>
       </c>
       <c r="R12">
-        <v>13051.21374468099</v>
+        <v>5.796616776397999</v>
       </c>
       <c r="S12">
-        <v>0.1307345806472471</v>
+        <v>2.575047619215419E-05</v>
       </c>
       <c r="T12">
-        <v>0.09708889557542077</v>
+        <v>2.947731239390144E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H13">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I13">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J13">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N13">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O13">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P13">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q13">
-        <v>3.345969365459999</v>
+        <v>1897.351879019046</v>
       </c>
       <c r="R13">
-        <v>30.11372428913999</v>
+        <v>11384.11127411428</v>
       </c>
       <c r="S13">
-        <v>0.0002011003315443627</v>
+        <v>0.07585794377330064</v>
       </c>
       <c r="T13">
-        <v>0.0002240181097399374</v>
+        <v>0.05789118330546702</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H14">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I14">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J14">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N14">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O14">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P14">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q14">
-        <v>5.993925103397001</v>
+        <v>4.437987208348667</v>
       </c>
       <c r="R14">
-        <v>35.96355062038201</v>
+        <v>26.627923250092</v>
       </c>
       <c r="S14">
-        <v>0.0003602484643129724</v>
+        <v>0.0001774349754730768</v>
       </c>
       <c r="T14">
-        <v>0.0002675353786253521</v>
+        <v>0.0001354099541718436</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H15">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I15">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J15">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P15">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q15">
-        <v>183.0716839868537</v>
+        <v>202.8297627750486</v>
       </c>
       <c r="R15">
-        <v>1098.430103921122</v>
+        <v>1216.978576650292</v>
       </c>
       <c r="S15">
-        <v>0.01100302253995075</v>
+        <v>0.008109328011468504</v>
       </c>
       <c r="T15">
-        <v>0.008171298680933766</v>
+        <v>0.006188654358982433</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H16">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I16">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J16">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N16">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O16">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P16">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q16">
-        <v>78.17939817872976</v>
+        <v>0.04093912246366666</v>
       </c>
       <c r="R16">
-        <v>312.717592714919</v>
+        <v>0.245634734782</v>
       </c>
       <c r="S16">
-        <v>0.004698758768079717</v>
+        <v>1.636785292342666E-06</v>
       </c>
       <c r="T16">
-        <v>0.002326328132973035</v>
+        <v>1.249116871317731E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,55 +1461,55 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H17">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I17">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J17">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N17">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O17">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P17">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q17">
-        <v>0.120258181239</v>
+        <v>120.6019503019255</v>
       </c>
       <c r="R17">
-        <v>0.721549087434</v>
+        <v>482.407801207702</v>
       </c>
       <c r="S17">
-        <v>7.227788863739397E-06</v>
+        <v>0.004821781381787657</v>
       </c>
       <c r="T17">
-        <v>5.367654332607218E-06</v>
+        <v>0.002453169841303681</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H18">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I18">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J18">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N18">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O18">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P18">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q18">
-        <v>194.722689507698</v>
+        <v>258.0858296412271</v>
       </c>
       <c r="R18">
-        <v>1752.504205569282</v>
+        <v>2322.772466771044</v>
       </c>
       <c r="S18">
-        <v>0.01170327434059594</v>
+        <v>0.01031851844146688</v>
       </c>
       <c r="T18">
-        <v>0.01303700185581174</v>
+        <v>0.01181190550697567</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H19">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I19">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J19">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>138.461282</v>
       </c>
       <c r="O19">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P19">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q19">
-        <v>5947.390076399225</v>
+        <v>11795.32187547916</v>
       </c>
       <c r="R19">
-        <v>53526.51068759302</v>
+        <v>106157.8968793124</v>
       </c>
       <c r="S19">
-        <v>0.3574516038711877</v>
+        <v>0.4715882559858572</v>
       </c>
       <c r="T19">
-        <v>0.3981874719339668</v>
+        <v>0.5398406708776035</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H20">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I20">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J20">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N20">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O20">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P20">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q20">
-        <v>2539.788605104162</v>
+        <v>2.380765624097111</v>
       </c>
       <c r="R20">
-        <v>15238.73163062497</v>
+        <v>21.426890616874</v>
       </c>
       <c r="S20">
-        <v>0.1526470432788388</v>
+        <v>9.518528789901536E-05</v>
       </c>
       <c r="T20">
-        <v>0.1133619947486174</v>
+        <v>0.0001089613429190724</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H21">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I21">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J21">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N21">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O21">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P21">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q21">
-        <v>3.906788303526</v>
+        <v>7013.461945421886</v>
       </c>
       <c r="R21">
-        <v>35.161094731734</v>
+        <v>42080.77167253131</v>
       </c>
       <c r="S21">
-        <v>0.0002348068189813525</v>
+        <v>0.280404920033632</v>
       </c>
       <c r="T21">
-        <v>0.0002615658529167888</v>
+        <v>0.2139917300412677</v>
       </c>
     </row>
   </sheetData>
